--- a/cht_app/forms/app/follow.xlsx
+++ b/cht_app/forms/app/follow.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="215">
   <si>
     <t>type</t>
   </si>
@@ -331,325 +331,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>reaction</t>
-  </si>
-  <si>
-    <t>Adverse Reaction</t>
-  </si>
-  <si>
-    <t>medicine</t>
-  </si>
-  <si>
-    <t>Poor Quality Medicine</t>
-  </si>
-  <si>
-    <t>relation</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>Self</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>guardian</t>
-  </si>
-  <si>
-    <t>Guardian</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Mombasa</t>
-  </si>
-  <si>
-    <t>Kwale</t>
-  </si>
-  <si>
-    <t>Kilifi</t>
-  </si>
-  <si>
-    <t>Tana River</t>
-  </si>
-  <si>
-    <t>Lamu</t>
-  </si>
-  <si>
-    <t>Taita Taveta</t>
-  </si>
-  <si>
-    <t>Garissa</t>
-  </si>
-  <si>
-    <t>Wajir</t>
-  </si>
-  <si>
-    <t>Mandera</t>
-  </si>
-  <si>
-    <t>Marsabit</t>
-  </si>
-  <si>
-    <t>Isiolo</t>
-  </si>
-  <si>
-    <t>Meru</t>
-  </si>
-  <si>
-    <t>Tharaka Nithi</t>
-  </si>
-  <si>
-    <t>Embu</t>
-  </si>
-  <si>
-    <t>Kitui</t>
-  </si>
-  <si>
-    <t>Machakos</t>
-  </si>
-  <si>
-    <t>Makueni</t>
-  </si>
-  <si>
-    <t>Nyandarua</t>
-  </si>
-  <si>
-    <t>Nyeri</t>
-  </si>
-  <si>
-    <t>Kirinyaga</t>
-  </si>
-  <si>
-    <t>Murang'a</t>
-  </si>
-  <si>
-    <t>Kiambu</t>
-  </si>
-  <si>
-    <t>Turkana</t>
-  </si>
-  <si>
-    <t>West Pokot</t>
-  </si>
-  <si>
-    <t>Samburu</t>
-  </si>
-  <si>
-    <t>Trans Nzoia</t>
-  </si>
-  <si>
-    <t>Uasin Gishu</t>
-  </si>
-  <si>
-    <t>Elgeyo/Marakwet</t>
-  </si>
-  <si>
-    <t>Nandi</t>
-  </si>
-  <si>
-    <t>Baringo</t>
-  </si>
-  <si>
-    <t>Laikipia</t>
-  </si>
-  <si>
-    <t>Nakuru</t>
-  </si>
-  <si>
-    <t>Narok</t>
-  </si>
-  <si>
-    <t>Kajiado</t>
-  </si>
-  <si>
-    <t>Kericho</t>
-  </si>
-  <si>
-    <t>Bomet</t>
-  </si>
-  <si>
-    <t>Kakamega</t>
-  </si>
-  <si>
-    <t>Vihiga</t>
-  </si>
-  <si>
-    <t>Bungoma</t>
-  </si>
-  <si>
-    <t>Busia</t>
-  </si>
-  <si>
-    <t>Siaya</t>
-  </si>
-  <si>
-    <t>Kisumu</t>
-  </si>
-  <si>
-    <t>Homa Bay</t>
-  </si>
-  <si>
-    <t>Migori</t>
-  </si>
-  <si>
-    <t>Kisii</t>
-  </si>
-  <si>
-    <t>Nyamira</t>
-  </si>
-  <si>
-    <t>Nairobi County</t>
-  </si>
-  <si>
-    <t>effects</t>
-  </si>
-  <si>
-    <t>Vomiting_or_diarrhea</t>
-  </si>
-  <si>
-    <t>Vomiting or diarrhea</t>
-  </si>
-  <si>
-    <t>Dizziness_or_drowsiness</t>
-  </si>
-  <si>
-    <t>Dizziness or drowsiness</t>
-  </si>
-  <si>
-    <t>Headache</t>
-  </si>
-  <si>
-    <t>Joints_and_muscle_pain</t>
-  </si>
-  <si>
-    <t>Joints and muscle pain</t>
-  </si>
-  <si>
-    <t>Rash_itching_swelling_on_skin</t>
-  </si>
-  <si>
-    <t>Rash, itching, swelling on skin</t>
-  </si>
-  <si>
-    <t>Pain_or_bleeding_in_the_mouth</t>
-  </si>
-  <si>
-    <t>Pain or bleeding in the mouth</t>
-  </si>
-  <si>
-    <t>Pain_in_the_stomach</t>
-  </si>
-  <si>
-    <t>Pain in the stomach</t>
-  </si>
-  <si>
-    <t>Abnormal_changes_with_urination</t>
-  </si>
-  <si>
-    <t>Abnormal changes with urination</t>
-  </si>
-  <si>
-    <t>Red,_painful_eyes</t>
-  </si>
-  <si>
-    <t>Red, painful eyes</t>
-  </si>
-  <si>
-    <t>Patient_died</t>
-  </si>
-  <si>
-    <t>Patient died</t>
-  </si>
-  <si>
-    <t>signs</t>
-  </si>
-  <si>
-    <t>The_label_looks_wrong</t>
-  </si>
-  <si>
-    <t>The label looks wrong</t>
-  </si>
-  <si>
-    <t>Has_unusual_material_in_it</t>
-  </si>
-  <si>
-    <t>Has unusual material in it</t>
-  </si>
-  <si>
-    <t>The_color_is_changing</t>
-  </si>
-  <si>
-    <t>The color is changing</t>
-  </si>
-  <si>
-    <t>The_smell_is_unusual</t>
-  </si>
-  <si>
-    <t>The smell is unusual</t>
-  </si>
-  <si>
-    <t>The_medicine_is_not_working</t>
-  </si>
-  <si>
-    <t>The medicine is not working</t>
-  </si>
-  <si>
-    <t>The_packet_or_bottle_does_not_seem_to_be_usual_or_complete</t>
-  </si>
-  <si>
-    <t>The packet or bottle does not seem to be usual or complete</t>
-  </si>
-  <si>
-    <t>outcome</t>
-  </si>
-  <si>
-    <t>recovered/resolved</t>
-  </si>
-  <si>
-    <t>Recovered/Resolved</t>
-  </si>
-  <si>
-    <t>recovering/resolving</t>
-  </si>
-  <si>
-    <t>Recovering/Resolving</t>
-  </si>
-  <si>
-    <t>recovered/resolved_with_sequelae</t>
-  </si>
-  <si>
-    <t>Recovered/Resolved with sequelae</t>
-  </si>
-  <si>
-    <t>not_recovered/not_resolved</t>
-  </si>
-  <si>
-    <t>Not recovered/Not resolved</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>Death</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>Unknown</t>
   </si>
   <si>
     <t>form_title</t>
@@ -683,6 +365,9 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>lmp_approximations</t>
@@ -793,10 +478,19 @@
     <t>Known diabetes</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>hiv_statuses</t>
   </si>
   <si>
     <t>known</t>
+  </si>
+  <si>
+    <t>unknown</t>
   </si>
   <si>
     <t>fp_methods</t>
@@ -1269,11 +963,11 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -35624,8 +35318,8 @@
       <c r="A2" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>85</v>
+      <c r="B2" s="39" t="s">
+        <v>104</v>
       </c>
       <c r="C2" s="37" t="s">
         <v>104</v>
@@ -35648,17 +35342,17 @@
       <c r="S2" s="37"/>
       <c r="T2" s="37"/>
       <c r="U2" s="37"/>
-      <c r="V2" s="39"/>
+      <c r="V2" s="40"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>105</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
@@ -35678,7 +35372,7 @@
       <c r="S3" s="37"/>
       <c r="T3" s="37"/>
       <c r="U3" s="37"/>
-      <c r="V3" s="39"/>
+      <c r="V3" s="40"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="37"/>
@@ -35702,18 +35396,12 @@
       <c r="S4" s="37"/>
       <c r="T4" s="37"/>
       <c r="U4" s="37"/>
-      <c r="V4" s="39"/>
+      <c r="V4" s="40"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>108</v>
-      </c>
+      <c r="A5" s="39"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -35732,18 +35420,12 @@
       <c r="S5" s="37"/>
       <c r="T5" s="37"/>
       <c r="U5" s="37"/>
-      <c r="V5" s="39"/>
+      <c r="V5" s="40"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>110</v>
-      </c>
+      <c r="A6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37"/>
@@ -35762,10 +35444,10 @@
       <c r="S6" s="37"/>
       <c r="T6" s="37"/>
       <c r="U6" s="37"/>
-      <c r="V6" s="39"/>
+      <c r="V6" s="40"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="40"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
       <c r="D7" s="37"/>
@@ -35786,18 +35468,12 @@
       <c r="S7" s="37"/>
       <c r="T7" s="37"/>
       <c r="U7" s="37"/>
-      <c r="V7" s="39"/>
+      <c r="V7" s="40"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>113</v>
-      </c>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
@@ -35818,15 +35494,9 @@
       <c r="U8" s="43"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>114</v>
-      </c>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
       <c r="F9" s="43"/>
@@ -35847,15 +35517,9 @@
       <c r="U9" s="43"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>116</v>
-      </c>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
       <c r="F10" s="43"/>
@@ -35876,15 +35540,9 @@
       <c r="U10" s="43"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>118</v>
-      </c>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
@@ -35928,15 +35586,9 @@
       <c r="U12" s="43"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>119</v>
-      </c>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="44"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
@@ -35962,15 +35614,9 @@
       <c r="Z13" s="43"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>120</v>
-      </c>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="44"/>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
@@ -35996,15 +35642,9 @@
       <c r="Z14" s="43"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>121</v>
-      </c>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="44"/>
       <c r="E15" s="45"/>
       <c r="F15" s="45"/>
@@ -36030,15 +35670,9 @@
       <c r="Z15" s="43"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>122</v>
-      </c>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="45"/>
       <c r="F16" s="45"/>
@@ -36064,15 +35698,9 @@
       <c r="Z16" s="43"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>123</v>
-      </c>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="44"/>
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
@@ -36098,15 +35726,9 @@
       <c r="Z17" s="43"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>124</v>
-      </c>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="44"/>
       <c r="E18" s="45"/>
       <c r="F18" s="45"/>
@@ -36132,15 +35754,9 @@
       <c r="Z18" s="43"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>125</v>
-      </c>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="44"/>
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
@@ -36166,15 +35782,9 @@
       <c r="Z19" s="43"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>126</v>
-      </c>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="44"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
@@ -36200,15 +35810,9 @@
       <c r="Z20" s="43"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>127</v>
-      </c>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="44"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45"/>
@@ -36234,15 +35838,9 @@
       <c r="Z21" s="43"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>128</v>
-      </c>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="44"/>
       <c r="E22" s="45"/>
       <c r="F22" s="45"/>
@@ -36268,15 +35866,9 @@
       <c r="Z22" s="43"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>129</v>
-      </c>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="44"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
@@ -36302,15 +35894,9 @@
       <c r="Z23" s="43"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>130</v>
-      </c>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="44"/>
       <c r="E24" s="45"/>
       <c r="F24" s="45"/>
@@ -36336,15 +35922,9 @@
       <c r="Z24" s="43"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>131</v>
-      </c>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="44"/>
       <c r="E25" s="45"/>
       <c r="F25" s="45"/>
@@ -36370,15 +35950,9 @@
       <c r="Z25" s="43"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>132</v>
-      </c>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="44"/>
       <c r="E26" s="45"/>
       <c r="F26" s="45"/>
@@ -36404,15 +35978,9 @@
       <c r="Z26" s="43"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>133</v>
-      </c>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="44"/>
       <c r="E27" s="45"/>
       <c r="F27" s="45"/>
@@ -36438,15 +36006,9 @@
       <c r="Z27" s="43"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>134</v>
-      </c>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="44"/>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
@@ -36472,15 +36034,9 @@
       <c r="Z28" s="43"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>135</v>
-      </c>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="44"/>
       <c r="E29" s="45"/>
       <c r="F29" s="45"/>
@@ -36506,15 +36062,9 @@
       <c r="Z29" s="43"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>136</v>
-      </c>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="44"/>
       <c r="E30" s="45"/>
       <c r="F30" s="45"/>
@@ -36540,15 +36090,9 @@
       <c r="Z30" s="43"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>137</v>
-      </c>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="44"/>
       <c r="E31" s="45"/>
       <c r="F31" s="45"/>
@@ -36574,15 +36118,9 @@
       <c r="Z31" s="43"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>138</v>
-      </c>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="44"/>
       <c r="E32" s="45"/>
       <c r="F32" s="45"/>
@@ -36608,15 +36146,9 @@
       <c r="Z32" s="43"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>139</v>
-      </c>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="44"/>
       <c r="E33" s="45"/>
       <c r="F33" s="45"/>
@@ -36642,15 +36174,9 @@
       <c r="Z33" s="43"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>140</v>
-      </c>
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="44"/>
       <c r="E34" s="45"/>
       <c r="F34" s="45"/>
@@ -36676,15 +36202,9 @@
       <c r="Z34" s="43"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>141</v>
-      </c>
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="44"/>
       <c r="E35" s="45"/>
       <c r="F35" s="45"/>
@@ -36710,15 +36230,9 @@
       <c r="Z35" s="43"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>142</v>
-      </c>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="44"/>
       <c r="E36" s="45"/>
       <c r="F36" s="45"/>
@@ -36744,15 +36258,9 @@
       <c r="Z36" s="43"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>143</v>
-      </c>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="44"/>
       <c r="E37" s="45"/>
       <c r="F37" s="45"/>
@@ -36778,15 +36286,9 @@
       <c r="Z37" s="43"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>144</v>
-      </c>
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
       <c r="D38" s="44"/>
       <c r="E38" s="45"/>
       <c r="F38" s="45"/>
@@ -36812,15 +36314,9 @@
       <c r="Z38" s="43"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>145</v>
-      </c>
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
       <c r="D39" s="44"/>
       <c r="E39" s="45"/>
       <c r="F39" s="45"/>
@@ -36846,15 +36342,9 @@
       <c r="Z39" s="43"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>146</v>
-      </c>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="44"/>
       <c r="E40" s="45"/>
       <c r="F40" s="45"/>
@@ -36880,15 +36370,9 @@
       <c r="Z40" s="43"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>147</v>
-      </c>
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
       <c r="D41" s="44"/>
       <c r="E41" s="45"/>
       <c r="F41" s="45"/>
@@ -36914,15 +36398,9 @@
       <c r="Z41" s="43"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>148</v>
-      </c>
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="44"/>
       <c r="E42" s="45"/>
       <c r="F42" s="45"/>
@@ -36948,15 +36426,9 @@
       <c r="Z42" s="43"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>149</v>
-      </c>
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
       <c r="D43" s="44"/>
       <c r="E43" s="45"/>
       <c r="F43" s="45"/>
@@ -36982,15 +36454,9 @@
       <c r="Z43" s="43"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>150</v>
-      </c>
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="44"/>
       <c r="E44" s="45"/>
       <c r="F44" s="45"/>
@@ -37016,15 +36482,9 @@
       <c r="Z44" s="43"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>151</v>
-      </c>
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="44"/>
       <c r="E45" s="45"/>
       <c r="F45" s="45"/>
@@ -37050,15 +36510,9 @@
       <c r="Z45" s="43"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B46" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="C46" s="44" t="s">
-        <v>152</v>
-      </c>
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
       <c r="D46" s="44"/>
       <c r="E46" s="45"/>
       <c r="F46" s="45"/>
@@ -37084,15 +36538,9 @@
       <c r="Z46" s="43"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B47" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>153</v>
-      </c>
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="44"/>
       <c r="E47" s="45"/>
       <c r="F47" s="45"/>
@@ -37118,15 +36566,9 @@
       <c r="Z47" s="43"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="C48" s="44" t="s">
-        <v>154</v>
-      </c>
+      <c r="A48" s="44"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
       <c r="D48" s="44"/>
       <c r="E48" s="45"/>
       <c r="F48" s="45"/>
@@ -37152,15 +36594,9 @@
       <c r="Z48" s="43"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B49" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="C49" s="44" t="s">
-        <v>155</v>
-      </c>
+      <c r="A49" s="44"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="44"/>
       <c r="E49" s="45"/>
       <c r="F49" s="45"/>
@@ -37186,15 +36622,9 @@
       <c r="Z49" s="43"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="44" t="s">
-        <v>156</v>
-      </c>
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
       <c r="D50" s="44"/>
       <c r="E50" s="45"/>
       <c r="F50" s="45"/>
@@ -37220,15 +36650,9 @@
       <c r="Z50" s="43"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B51" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51" s="44" t="s">
-        <v>157</v>
-      </c>
+      <c r="A51" s="44"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
       <c r="D51" s="44"/>
       <c r="E51" s="45"/>
       <c r="F51" s="45"/>
@@ -37254,15 +36678,9 @@
       <c r="Z51" s="43"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="C52" s="44" t="s">
-        <v>158</v>
-      </c>
+      <c r="A52" s="44"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
       <c r="D52" s="44"/>
       <c r="E52" s="45"/>
       <c r="F52" s="45"/>
@@ -37288,15 +36706,9 @@
       <c r="Z52" s="43"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="C53" s="44" t="s">
-        <v>159</v>
-      </c>
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
       <c r="D53" s="44"/>
       <c r="E53" s="45"/>
       <c r="F53" s="45"/>
@@ -37322,15 +36734,9 @@
       <c r="Z53" s="43"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B54" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="C54" s="44" t="s">
-        <v>160</v>
-      </c>
+      <c r="A54" s="44"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
       <c r="D54" s="44"/>
       <c r="E54" s="45"/>
       <c r="F54" s="45"/>
@@ -37356,15 +36762,9 @@
       <c r="Z54" s="43"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C55" s="44" t="s">
-        <v>161</v>
-      </c>
+      <c r="A55" s="44"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
       <c r="D55" s="44"/>
       <c r="E55" s="45"/>
       <c r="F55" s="45"/>
@@ -37390,15 +36790,9 @@
       <c r="Z55" s="43"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B56" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="C56" s="44" t="s">
-        <v>162</v>
-      </c>
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
       <c r="D56" s="44"/>
       <c r="E56" s="45"/>
       <c r="F56" s="45"/>
@@ -37424,15 +36818,9 @@
       <c r="Z56" s="43"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B57" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="C57" s="44" t="s">
-        <v>163</v>
-      </c>
+      <c r="A57" s="44"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
       <c r="D57" s="44"/>
       <c r="E57" s="45"/>
       <c r="F57" s="45"/>
@@ -37458,15 +36846,9 @@
       <c r="Z57" s="43"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B58" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58" s="44" t="s">
-        <v>164</v>
-      </c>
+      <c r="A58" s="44"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
       <c r="D58" s="44"/>
       <c r="E58" s="45"/>
       <c r="F58" s="45"/>
@@ -37492,15 +36874,9 @@
       <c r="Z58" s="43"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="C59" s="44" t="s">
-        <v>165</v>
-      </c>
+      <c r="A59" s="44"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
       <c r="D59" s="44"/>
       <c r="E59" s="45"/>
       <c r="F59" s="45"/>
@@ -37548,15 +36924,9 @@
       <c r="U60" s="43"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B61" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C61" s="47" t="s">
-        <v>168</v>
-      </c>
+      <c r="A61" s="46"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="43"/>
@@ -37577,15 +36947,9 @@
       <c r="U61" s="43"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B62" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="C62" s="47" t="s">
-        <v>170</v>
-      </c>
+      <c r="A62" s="46"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="43"/>
@@ -37606,15 +36970,9 @@
       <c r="U62" s="43"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B63" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="C63" s="47" t="s">
-        <v>171</v>
-      </c>
+      <c r="A63" s="46"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
       <c r="F63" s="43"/>
@@ -37635,15 +36993,9 @@
       <c r="U63" s="43"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B64" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="C64" s="47" t="s">
-        <v>173</v>
-      </c>
+      <c r="A64" s="46"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="43"/>
@@ -37664,15 +37016,9 @@
       <c r="U64" s="43"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B65" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C65" s="47" t="s">
-        <v>175</v>
-      </c>
+      <c r="A65" s="46"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="43"/>
@@ -37693,15 +37039,9 @@
       <c r="U65" s="43"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B66" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="C66" s="47" t="s">
-        <v>177</v>
-      </c>
+      <c r="A66" s="46"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
       <c r="F66" s="43"/>
@@ -37722,15 +37062,9 @@
       <c r="U66" s="43"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B67" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="C67" s="47" t="s">
-        <v>179</v>
-      </c>
+      <c r="A67" s="46"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="43"/>
@@ -37751,15 +37085,9 @@
       <c r="U67" s="43"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B68" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="C68" s="47" t="s">
-        <v>181</v>
-      </c>
+      <c r="A68" s="46"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="43"/>
@@ -37780,15 +37108,9 @@
       <c r="U68" s="43"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B69" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="C69" s="47" t="s">
-        <v>183</v>
-      </c>
+      <c r="A69" s="46"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
       <c r="F69" s="43"/>
@@ -37809,15 +37131,9 @@
       <c r="U69" s="43"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B70" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="C70" s="47" t="s">
-        <v>185</v>
-      </c>
+      <c r="A70" s="46"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
       <c r="D70" s="43"/>
       <c r="E70" s="43"/>
       <c r="F70" s="43"/>
@@ -37861,15 +37177,9 @@
       <c r="U71" s="43"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="B72" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="C72" s="49" t="s">
-        <v>188</v>
-      </c>
+      <c r="A72" s="48"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="49"/>
       <c r="D72" s="43"/>
       <c r="E72" s="43"/>
       <c r="F72" s="43"/>
@@ -37890,15 +37200,9 @@
       <c r="U72" s="43"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="B73" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="C73" s="49" t="s">
-        <v>190</v>
-      </c>
+      <c r="A73" s="48"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="49"/>
       <c r="D73" s="43"/>
       <c r="E73" s="43"/>
       <c r="F73" s="43"/>
@@ -37919,15 +37223,9 @@
       <c r="U73" s="43"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="B74" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="C74" s="49" t="s">
-        <v>192</v>
-      </c>
+      <c r="A74" s="48"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="49"/>
       <c r="D74" s="43"/>
       <c r="E74" s="43"/>
       <c r="F74" s="43"/>
@@ -37948,15 +37246,9 @@
       <c r="U74" s="43"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="B75" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="C75" s="49" t="s">
-        <v>194</v>
-      </c>
+      <c r="A75" s="48"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="49"/>
       <c r="D75" s="43"/>
       <c r="E75" s="43"/>
       <c r="F75" s="43"/>
@@ -37977,15 +37269,9 @@
       <c r="U75" s="43"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="B76" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="C76" s="49" t="s">
-        <v>196</v>
-      </c>
+      <c r="A76" s="48"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="49"/>
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
       <c r="F76" s="43"/>
@@ -38006,15 +37292,9 @@
       <c r="U76" s="43"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="B77" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="C77" s="49" t="s">
-        <v>198</v>
-      </c>
+      <c r="A77" s="48"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="49"/>
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
       <c r="F77" s="43"/>
@@ -38058,15 +37338,9 @@
       <c r="U78" s="43"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="B79" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="C79" s="51" t="s">
-        <v>201</v>
-      </c>
+      <c r="A79" s="50"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
       <c r="F79" s="43"/>
@@ -38087,15 +37361,9 @@
       <c r="U79" s="43"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="B80" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="C80" s="51" t="s">
-        <v>203</v>
-      </c>
+      <c r="A80" s="50"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="51"/>
       <c r="D80" s="43"/>
       <c r="E80" s="43"/>
       <c r="F80" s="43"/>
@@ -38116,15 +37384,9 @@
       <c r="U80" s="43"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="B81" s="51" t="s">
-        <v>204</v>
-      </c>
-      <c r="C81" s="51" t="s">
-        <v>205</v>
-      </c>
+      <c r="A81" s="50"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="51"/>
       <c r="D81" s="43"/>
       <c r="E81" s="43"/>
       <c r="F81" s="43"/>
@@ -38145,15 +37407,9 @@
       <c r="U81" s="43"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="B82" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="C82" s="51" t="s">
-        <v>207</v>
-      </c>
+      <c r="A82" s="50"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="51"/>
       <c r="D82" s="43"/>
       <c r="E82" s="43"/>
       <c r="F82" s="43"/>
@@ -38174,15 +37430,9 @@
       <c r="U82" s="43"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="B83" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="C83" s="51" t="s">
-        <v>209</v>
-      </c>
+      <c r="A83" s="50"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
       <c r="D83" s="43"/>
       <c r="E83" s="43"/>
       <c r="F83" s="43"/>
@@ -38203,15 +37453,9 @@
       <c r="U83" s="43"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="B84" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="C84" s="51" t="s">
-        <v>211</v>
-      </c>
+      <c r="A84" s="50"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="51"/>
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
       <c r="F84" s="43"/>
@@ -45551,25 +44795,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="52" t="s">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>215</v>
+        <v>109</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>217</v>
+        <v>111</v>
       </c>
       <c r="G1" s="53" t="s">
-        <v>218</v>
+        <v>112</v>
       </c>
       <c r="H1" s="52"/>
       <c r="I1" s="52"/>
@@ -45593,24 +44837,24 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="54" t="s">
-        <v>219</v>
+        <v>113</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>220</v>
+        <v>114</v>
       </c>
       <c r="C2" s="55">
         <f>NOW()</f>
-        <v>45125.02714</v>
+        <v>45137.97379</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>221</v>
+        <v>115</v>
       </c>
       <c r="E2" s="56" t="s">
         <v>86</v>
       </c>
       <c r="F2" s="38"/>
       <c r="G2" s="57" t="s">
-        <v>222</v>
+        <v>116</v>
       </c>
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
@@ -46700,1078 +45944,1078 @@
       <c r="W1" s="38"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>256</v>
-      </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="39" t="s">
+      <c r="A5" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="39"/>
+      <c r="B5" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="39" t="s">
-        <v>259</v>
+      <c r="A31" s="40" t="s">
+        <v>156</v>
       </c>
-      <c r="B31" s="39" t="s">
-        <v>260</v>
+      <c r="B31" s="40" t="s">
+        <v>157</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="39" t="s">
-        <v>259</v>
+      <c r="A32" s="40" t="s">
+        <v>156</v>
       </c>
-      <c r="B32" s="39" t="s">
-        <v>210</v>
+      <c r="B32" s="40" t="s">
+        <v>158</v>
       </c>
-      <c r="C32" s="39" t="s">
-        <v>106</v>
+      <c r="C32" s="40" t="s">
+        <v>105</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="65" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="B34" s="65" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" s="65" t="s">
-        <v>262</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="65" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="B35" s="65" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>263</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="65" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="B36" s="65" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" s="65" t="s">
-        <v>264</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="65" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="B37" s="65" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" s="65" t="s">
-        <v>265</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="65" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="B38" s="65" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" s="65" t="s">
-        <v>266</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="65" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="B39" s="65" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" s="65" t="s">
-        <v>267</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="65" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="B40" s="65" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" s="65" t="s">
-        <v>268</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="65" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="B41" s="65" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" s="65" t="s">
-        <v>269</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="65" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="B42" s="65" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>270</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="65" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="B43" s="65" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="C43" s="65" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -47782,26 +47026,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="65" t="s">
-        <v>271</v>
+        <v>169</v>
       </c>
       <c r="B45" s="65" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" s="65" t="s">
-        <v>272</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="65" t="s">
-        <v>271</v>
+        <v>169</v>
       </c>
       <c r="B46" s="65" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" s="65" t="s">
-        <v>273</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -47812,13 +47056,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="56" t="s">
-        <v>274</v>
+        <v>172</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>275</v>
+        <v>173</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>276</v>
+        <v>174</v>
       </c>
       <c r="D48" s="56"/>
       <c r="E48" s="56"/>
@@ -47843,13 +47087,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="56" t="s">
-        <v>274</v>
+        <v>172</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>277</v>
+        <v>175</v>
       </c>
       <c r="C49" s="56" t="s">
-        <v>278</v>
+        <v>176</v>
       </c>
       <c r="D49" s="56"/>
       <c r="E49" s="56"/>
@@ -47875,226 +47119,226 @@
     <row r="50" ht="12.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="65" t="s">
-        <v>279</v>
+        <v>177</v>
       </c>
       <c r="B51" s="65" t="s">
-        <v>280</v>
+        <v>178</v>
       </c>
       <c r="C51" s="65" t="s">
-        <v>281</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="65" t="s">
-        <v>279</v>
+        <v>177</v>
       </c>
       <c r="B52" s="65" t="s">
-        <v>282</v>
+        <v>180</v>
       </c>
       <c r="C52" s="65" t="s">
-        <v>283</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="65" t="s">
-        <v>279</v>
+        <v>177</v>
       </c>
       <c r="B53" s="65" t="s">
-        <v>284</v>
+        <v>182</v>
       </c>
       <c r="C53" s="65" t="s">
-        <v>285</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="65" t="s">
-        <v>279</v>
+        <v>177</v>
       </c>
       <c r="B54" s="65" t="s">
-        <v>286</v>
+        <v>184</v>
       </c>
       <c r="C54" s="65" t="s">
-        <v>287</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="65" t="s">
-        <v>279</v>
+        <v>177</v>
       </c>
       <c r="B55" s="65" t="s">
-        <v>288</v>
+        <v>186</v>
       </c>
       <c r="C55" s="65" t="s">
-        <v>289</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="65" t="s">
-        <v>279</v>
+        <v>177</v>
       </c>
       <c r="B56" s="65" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="C56" s="65" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="56" t="s">
-        <v>290</v>
+        <v>188</v>
       </c>
       <c r="B58" s="56" t="s">
-        <v>291</v>
+        <v>189</v>
       </c>
       <c r="C58" s="56" t="s">
-        <v>292</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="56" t="s">
-        <v>290</v>
+        <v>188</v>
       </c>
       <c r="B59" s="56" t="s">
-        <v>293</v>
+        <v>191</v>
       </c>
       <c r="C59" s="56" t="s">
-        <v>294</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="56" t="s">
-        <v>290</v>
+        <v>188</v>
       </c>
       <c r="B60" s="56" t="s">
-        <v>295</v>
+        <v>193</v>
       </c>
       <c r="C60" s="56" t="s">
-        <v>296</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="56" t="s">
-        <v>290</v>
+        <v>188</v>
       </c>
       <c r="B61" s="56" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="C61" s="56" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="38" t="s">
-        <v>297</v>
+        <v>195</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>298</v>
+        <v>196</v>
       </c>
       <c r="C63" s="56" t="s">
-        <v>299</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="38" t="s">
-        <v>297</v>
+        <v>195</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>300</v>
+        <v>198</v>
       </c>
       <c r="C64" s="56" t="s">
-        <v>301</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="38" t="s">
-        <v>297</v>
+        <v>195</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>302</v>
+        <v>200</v>
       </c>
       <c r="C65" s="56" t="s">
-        <v>303</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="38" t="s">
-        <v>297</v>
+        <v>195</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>304</v>
+        <v>202</v>
       </c>
       <c r="C66" s="56" t="s">
-        <v>305</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="38" t="s">
-        <v>297</v>
+        <v>195</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>306</v>
+        <v>204</v>
       </c>
       <c r="C67" s="56" t="s">
-        <v>307</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="65" t="s">
-        <v>308</v>
+        <v>206</v>
       </c>
       <c r="B69" s="65" t="s">
-        <v>309</v>
+        <v>207</v>
       </c>
       <c r="C69" s="65" t="s">
-        <v>310</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="65" t="s">
-        <v>308</v>
+        <v>206</v>
       </c>
       <c r="B70" s="65" t="s">
-        <v>311</v>
+        <v>209</v>
       </c>
       <c r="C70" s="65" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="65" t="s">
-        <v>313</v>
+        <v>211</v>
       </c>
       <c r="B72" s="65" t="s">
-        <v>314</v>
+        <v>212</v>
       </c>
       <c r="C72" s="66" t="s">
-        <v>272</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="65" t="s">
-        <v>313</v>
+        <v>211</v>
       </c>
       <c r="B73" s="65" t="s">
-        <v>315</v>
+        <v>213</v>
       </c>
       <c r="C73" s="65" t="s">
-        <v>316</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="65" t="s">
-        <v>313</v>
+        <v>211</v>
       </c>
       <c r="B74" s="65" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="C74" s="65" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>
